--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnai2-Lhcgr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnai2-Lhcgr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>203.7816646666667</v>
+        <v>82.98768099999999</v>
       </c>
       <c r="H2">
-        <v>611.344994</v>
+        <v>248.963043</v>
       </c>
       <c r="I2">
-        <v>0.6667327591988204</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="J2">
-        <v>0.6667327591988205</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>0.01713876626480986</v>
       </c>
       <c r="Q2">
-        <v>13.53470267660911</v>
+        <v>5.511848134097666</v>
       </c>
       <c r="R2">
-        <v>121.812324089482</v>
+        <v>49.606633206879</v>
       </c>
       <c r="S2">
-        <v>0.01142697692100034</v>
+        <v>0.007694456167922165</v>
       </c>
       <c r="T2">
-        <v>0.01142697692100034</v>
+        <v>0.007694456167922165</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>203.7816646666667</v>
+        <v>82.98768099999999</v>
       </c>
       <c r="H3">
-        <v>611.344994</v>
+        <v>248.963043</v>
       </c>
       <c r="I3">
-        <v>0.6667327591988204</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="J3">
-        <v>0.6667327591988205</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,16 +626,16 @@
         <v>0.9828612337351901</v>
       </c>
       <c r="Q3">
-        <v>776.1780728805913</v>
+        <v>316.089371518151</v>
       </c>
       <c r="R3">
-        <v>6985.602655925322</v>
+        <v>2844.804343663359</v>
       </c>
       <c r="S3">
-        <v>0.65530578227782</v>
+        <v>0.4412559553748731</v>
       </c>
       <c r="T3">
-        <v>0.6553057822778201</v>
+        <v>0.4412559553748731</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>63.14058933333334</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H4">
         <v>189.421768</v>
       </c>
       <c r="I4">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="J4">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>0.01713876626480986</v>
       </c>
       <c r="Q4">
-        <v>4.193650615478223</v>
+        <v>4.193650615478222</v>
       </c>
       <c r="R4">
         <v>37.742855539304</v>
       </c>
       <c r="S4">
-        <v>0.00354058378250347</v>
+        <v>0.005854272479816698</v>
       </c>
       <c r="T4">
-        <v>0.003540583782503469</v>
+        <v>0.005854272479816698</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>63.14058933333334</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H5">
         <v>189.421768</v>
       </c>
       <c r="I5">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="J5">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -750,16 +750,16 @@
         <v>0.9828612337351901</v>
       </c>
       <c r="Q5">
-        <v>240.4943596346427</v>
+        <v>240.4943596346426</v>
       </c>
       <c r="R5">
         <v>2164.449236711784</v>
       </c>
       <c r="S5">
-        <v>0.2030427681226547</v>
+        <v>0.3357264684768396</v>
       </c>
       <c r="T5">
-        <v>0.2030427681226547</v>
+        <v>0.3357264684768396</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>116.159826</v>
       </c>
       <c r="I6">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="J6">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -818,10 +818,10 @@
         <v>23.145193809978</v>
       </c>
       <c r="S6">
-        <v>0.002171205561306052</v>
+        <v>0.003590037617071002</v>
       </c>
       <c r="T6">
-        <v>0.002171205561306052</v>
+        <v>0.003590037617071002</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>116.159826</v>
       </c>
       <c r="I7">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="J7">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -880,10 +880,10 @@
         <v>1327.313377849338</v>
       </c>
       <c r="S7">
-        <v>0.1245126833347153</v>
+        <v>0.2058788098834775</v>
       </c>
       <c r="T7">
-        <v>0.1245126833347153</v>
+        <v>0.2058788098834775</v>
       </c>
     </row>
   </sheetData>
